--- a/data/trans_orig/P14A14-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P14A14-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C725317F-B7E8-462A-A023-392D53EB8F25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BB474F0F-D648-4784-87A9-1B14930683FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{269E8FA7-DE3D-484D-88EB-55C56CFCAFF5}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{3114B7C5-7985-4772-8DE3-ACC04CB75C76}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -105,13 +105,13 @@
     <t>86,83%</t>
   </si>
   <si>
-    <t>59,65%</t>
+    <t>59,94%</t>
   </si>
   <si>
     <t>13,17%</t>
   </si>
   <si>
-    <t>40,35%</t>
+    <t>40,06%</t>
   </si>
   <si>
     <t>45/54</t>
@@ -123,19 +123,16 @@
     <t>86,48%</t>
   </si>
   <si>
-    <t>67,26%</t>
-  </si>
-  <si>
-    <t>95,8%</t>
+    <t>67,94%</t>
   </si>
   <si>
     <t>83,6%</t>
   </si>
   <si>
-    <t>61,82%</t>
-  </si>
-  <si>
-    <t>95,83%</t>
+    <t>65,77%</t>
+  </si>
+  <si>
+    <t>95,84%</t>
   </si>
   <si>
     <t>51,86%</t>
@@ -144,19 +141,16 @@
     <t>13,52%</t>
   </si>
   <si>
-    <t>4,2%</t>
-  </si>
-  <si>
-    <t>32,74%</t>
+    <t>32,06%</t>
   </si>
   <si>
     <t>16,4%</t>
   </si>
   <si>
-    <t>4,17%</t>
-  </si>
-  <si>
-    <t>38,18%</t>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>34,23%</t>
   </si>
   <si>
     <t>55/64</t>
@@ -168,19 +162,19 @@
     <t>86,4%</t>
   </si>
   <si>
-    <t>71,38%</t>
-  </si>
-  <si>
-    <t>96,68%</t>
+    <t>68,08%</t>
+  </si>
+  <si>
+    <t>96,55%</t>
   </si>
   <si>
     <t>84,06%</t>
   </si>
   <si>
-    <t>70,19%</t>
-  </si>
-  <si>
-    <t>94,07%</t>
+    <t>69,77%</t>
+  </si>
+  <si>
+    <t>94,2%</t>
   </si>
   <si>
     <t>46,92%</t>
@@ -189,19 +183,19 @@
     <t>13,6%</t>
   </si>
   <si>
-    <t>3,32%</t>
-  </si>
-  <si>
-    <t>28,62%</t>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>31,92%</t>
   </si>
   <si>
     <t>15,94%</t>
   </si>
   <si>
-    <t>5,93%</t>
-  </si>
-  <si>
-    <t>29,81%</t>
+    <t>5,8%</t>
+  </si>
+  <si>
+    <t>30,23%</t>
   </si>
   <si>
     <t>65 y más</t>
@@ -213,16 +207,16 @@
     <t>89,14%</t>
   </si>
   <si>
-    <t>66,94%</t>
+    <t>67,04%</t>
   </si>
   <si>
     <t>85,86%</t>
   </si>
   <si>
-    <t>65,67%</t>
-  </si>
-  <si>
-    <t>95,67%</t>
+    <t>66,31%</t>
+  </si>
+  <si>
+    <t>95,74%</t>
   </si>
   <si>
     <t>33,25%</t>
@@ -231,70 +225,70 @@
     <t>10,86%</t>
   </si>
   <si>
-    <t>33,06%</t>
+    <t>32,96%</t>
   </si>
   <si>
     <t>14,14%</t>
   </si>
   <si>
-    <t>4,33%</t>
-  </si>
-  <si>
-    <t>34,33%</t>
+    <t>4,26%</t>
+  </si>
+  <si>
+    <t>33,69%</t>
   </si>
   <si>
     <t>57,7%</t>
   </si>
   <si>
-    <t>14,48%</t>
-  </si>
-  <si>
-    <t>86,76%</t>
+    <t>27,13%</t>
+  </si>
+  <si>
+    <t>86,53%</t>
   </si>
   <si>
     <t>87,73%</t>
   </si>
   <si>
-    <t>79,76%</t>
-  </si>
-  <si>
-    <t>93,43%</t>
+    <t>79,85%</t>
+  </si>
+  <si>
+    <t>93,56%</t>
   </si>
   <si>
     <t>85,5%</t>
   </si>
   <si>
-    <t>77,46%</t>
-  </si>
-  <si>
-    <t>91,7%</t>
+    <t>77,44%</t>
+  </si>
+  <si>
+    <t>91,75%</t>
   </si>
   <si>
     <t>42,3%</t>
   </si>
   <si>
-    <t>13,24%</t>
-  </si>
-  <si>
-    <t>85,52%</t>
+    <t>13,47%</t>
+  </si>
+  <si>
+    <t>72,87%</t>
   </si>
   <si>
     <t>12,27%</t>
   </si>
   <si>
-    <t>6,57%</t>
-  </si>
-  <si>
-    <t>20,24%</t>
+    <t>6,44%</t>
+  </si>
+  <si>
+    <t>20,15%</t>
   </si>
   <si>
     <t>14,5%</t>
   </si>
   <si>
-    <t>8,3%</t>
-  </si>
-  <si>
-    <t>22,54%</t>
+    <t>8,25%</t>
+  </si>
+  <si>
+    <t>22,56%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -318,7 +312,7 @@
     <t>34,12%</t>
   </si>
   <si>
-    <t>83,46%</t>
+    <t>84,58%</t>
   </si>
   <si>
     <t>66,04%</t>
@@ -330,7 +324,7 @@
     <t>65,88%</t>
   </si>
   <si>
-    <t>16,54%</t>
+    <t>15,42%</t>
   </si>
   <si>
     <t>79,25%</t>
@@ -342,37 +336,37 @@
     <t>82,84%</t>
   </si>
   <si>
-    <t>68,33%</t>
-  </si>
-  <si>
-    <t>91,91%</t>
+    <t>67,92%</t>
+  </si>
+  <si>
+    <t>93,83%</t>
   </si>
   <si>
     <t>84,55%</t>
   </si>
   <si>
-    <t>70,78%</t>
-  </si>
-  <si>
-    <t>94,56%</t>
+    <t>70,73%</t>
+  </si>
+  <si>
+    <t>93,01%</t>
   </si>
   <si>
     <t>17,16%</t>
   </si>
   <si>
-    <t>8,09%</t>
-  </si>
-  <si>
-    <t>31,67%</t>
+    <t>6,17%</t>
+  </si>
+  <si>
+    <t>32,08%</t>
   </si>
   <si>
     <t>15,45%</t>
   </si>
   <si>
-    <t>5,44%</t>
-  </si>
-  <si>
-    <t>29,22%</t>
+    <t>6,99%</t>
+  </si>
+  <si>
+    <t>29,27%</t>
   </si>
   <si>
     <t>72,1%</t>
@@ -384,133 +378,139 @@
     <t>77,19%</t>
   </si>
   <si>
-    <t>61,76%</t>
-  </si>
-  <si>
-    <t>87,65%</t>
+    <t>62,04%</t>
+  </si>
+  <si>
+    <t>87,58%</t>
   </si>
   <si>
     <t>76,74%</t>
   </si>
   <si>
-    <t>62,86%</t>
+    <t>62,74%</t>
+  </si>
+  <si>
+    <t>88,16%</t>
+  </si>
+  <si>
+    <t>27,9%</t>
+  </si>
+  <si>
+    <t>84,6%</t>
+  </si>
+  <si>
+    <t>22,81%</t>
+  </si>
+  <si>
+    <t>12,42%</t>
+  </si>
+  <si>
+    <t>37,96%</t>
+  </si>
+  <si>
+    <t>23,26%</t>
+  </si>
+  <si>
+    <t>11,84%</t>
+  </si>
+  <si>
+    <t>37,26%</t>
+  </si>
+  <si>
+    <t>43,07%</t>
+  </si>
+  <si>
+    <t>89,04%</t>
+  </si>
+  <si>
+    <t>72,13%</t>
+  </si>
+  <si>
+    <t>96,66%</t>
+  </si>
+  <si>
+    <t>89,87%</t>
+  </si>
+  <si>
+    <t>75,07%</t>
+  </si>
+  <si>
+    <t>96,99%</t>
+  </si>
+  <si>
+    <t>56,93%</t>
+  </si>
+  <si>
+    <t>10,96%</t>
+  </si>
+  <si>
+    <t>3,34%</t>
+  </si>
+  <si>
+    <t>27,87%</t>
+  </si>
+  <si>
+    <t>10,13%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>24,93%</t>
+  </si>
+  <si>
+    <t>77,37%</t>
+  </si>
+  <si>
+    <t>52,87%</t>
+  </si>
+  <si>
+    <t>93,23%</t>
+  </si>
+  <si>
+    <t>82,55%</t>
+  </si>
+  <si>
+    <t>74,99%</t>
+  </si>
+  <si>
+    <t>89,05%</t>
+  </si>
+  <si>
+    <t>82,03%</t>
+  </si>
+  <si>
+    <t>74,45%</t>
   </si>
   <si>
     <t>88,33%</t>
   </si>
   <si>
-    <t>27,9%</t>
-  </si>
-  <si>
-    <t>84,6%</t>
-  </si>
-  <si>
-    <t>22,81%</t>
-  </si>
-  <si>
-    <t>12,35%</t>
-  </si>
-  <si>
-    <t>38,24%</t>
-  </si>
-  <si>
-    <t>23,26%</t>
+    <t>22,63%</t>
+  </si>
+  <si>
+    <t>6,77%</t>
+  </si>
+  <si>
+    <t>47,13%</t>
+  </si>
+  <si>
+    <t>17,45%</t>
+  </si>
+  <si>
+    <t>10,95%</t>
+  </si>
+  <si>
+    <t>25,01%</t>
+  </si>
+  <si>
+    <t>17,97%</t>
   </si>
   <si>
     <t>11,67%</t>
   </si>
   <si>
-    <t>37,14%</t>
-  </si>
-  <si>
-    <t>43,07%</t>
-  </si>
-  <si>
-    <t>89,04%</t>
-  </si>
-  <si>
-    <t>69,31%</t>
-  </si>
-  <si>
-    <t>89,87%</t>
-  </si>
-  <si>
-    <t>74,95%</t>
-  </si>
-  <si>
-    <t>96,9%</t>
-  </si>
-  <si>
-    <t>56,93%</t>
-  </si>
-  <si>
-    <t>10,96%</t>
-  </si>
-  <si>
-    <t>30,69%</t>
-  </si>
-  <si>
-    <t>10,13%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>25,05%</t>
-  </si>
-  <si>
-    <t>77,37%</t>
-  </si>
-  <si>
-    <t>51,65%</t>
-  </si>
-  <si>
-    <t>93,39%</t>
-  </si>
-  <si>
-    <t>82,55%</t>
-  </si>
-  <si>
-    <t>74,64%</t>
-  </si>
-  <si>
-    <t>89,25%</t>
-  </si>
-  <si>
-    <t>82,03%</t>
-  </si>
-  <si>
-    <t>73,4%</t>
-  </si>
-  <si>
-    <t>87,75%</t>
-  </si>
-  <si>
-    <t>22,63%</t>
-  </si>
-  <si>
-    <t>6,61%</t>
-  </si>
-  <si>
-    <t>48,35%</t>
-  </si>
-  <si>
-    <t>17,45%</t>
-  </si>
-  <si>
-    <t>10,75%</t>
-  </si>
-  <si>
-    <t>25,36%</t>
-  </si>
-  <si>
-    <t>17,97%</t>
-  </si>
-  <si>
-    <t>12,25%</t>
-  </si>
-  <si>
-    <t>26,6%</t>
+    <t>25,55%</t>
   </si>
 </sst>
 </file>
@@ -922,7 +922,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC6852A3-D647-4D85-9C2F-15983F315FC1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B461B2D6-9624-4444-962A-AAA661F5CCC7}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1502,7 +1502,7 @@
         <v>28</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="M13" s="7">
         <v>20</v>
@@ -1511,13 +1511,13 @@
         <v>22328</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>31</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1532,7 +1532,7 @@
         <v>1041</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>17</v>
@@ -1547,13 +1547,13 @@
         <v>3340</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>34</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>36</v>
       </c>
       <c r="M14" s="7">
         <v>4</v>
@@ -1562,13 +1562,13 @@
         <v>4380</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>37</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1624,7 +1624,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -1636,7 +1636,7 @@
         <v>1145</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>17</v>
@@ -1651,13 +1651,13 @@
         <v>24776</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>42</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>44</v>
       </c>
       <c r="M16" s="7">
         <v>24</v>
@@ -1666,13 +1666,13 @@
         <v>25920</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>45</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1687,7 +1687,7 @@
         <v>1013</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>17</v>
@@ -1702,13 +1702,13 @@
         <v>3901</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>49</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>51</v>
       </c>
       <c r="M17" s="7">
         <v>5</v>
@@ -1717,13 +1717,13 @@
         <v>4914</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>52</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1779,7 +1779,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -1791,7 +1791,7 @@
         <v>2149</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>17</v>
@@ -1806,10 +1806,10 @@
         <v>16706</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="L19" s="7" t="s">
         <v>14</v>
@@ -1821,13 +1821,13 @@
         <v>18854</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>59</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -1842,7 +1842,7 @@
         <v>1071</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>17</v>
@@ -1857,13 +1857,13 @@
         <v>2034</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>17</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="M20" s="7">
         <v>3</v>
@@ -1872,13 +1872,13 @@
         <v>3105</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>65</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -1946,13 +1946,13 @@
         <v>4260</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>68</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>70</v>
       </c>
       <c r="H22" s="7">
         <v>74</v>
@@ -1961,13 +1961,13 @@
         <v>80464</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>71</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>73</v>
       </c>
       <c r="M22" s="7">
         <v>78</v>
@@ -1976,13 +1976,13 @@
         <v>84725</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>74</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -1997,13 +1997,13 @@
         <v>3124</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="G23" s="7" t="s">
         <v>77</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>79</v>
       </c>
       <c r="H23" s="7">
         <v>11</v>
@@ -2012,13 +2012,13 @@
         <v>11250</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>80</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>82</v>
       </c>
       <c r="M23" s="7">
         <v>14</v>
@@ -2027,13 +2027,13 @@
         <v>14373</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>83</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2089,7 +2089,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
   </sheetData>
@@ -2111,7 +2111,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CAD6AAE-28CD-41E1-9ABE-B1DDF51E7CE8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CB20141-1A4D-4943-B046-6362A9CDDC45}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2128,7 +2128,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2251,7 +2251,7 @@
         <v>14</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>16</v>
@@ -2266,7 +2266,7 @@
         <v>14</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>16</v>
@@ -2303,7 +2303,7 @@
         <v>18</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
@@ -2318,7 +2318,7 @@
         <v>18</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2384,7 +2384,7 @@
         <v>1020</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>17</v>
@@ -2399,7 +2399,7 @@
         <v>1006</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>17</v>
@@ -2414,13 +2414,13 @@
         <v>2026</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="P7" s="7" t="s">
         <v>17</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2435,7 +2435,7 @@
         <v>1985</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>17</v>
@@ -2450,7 +2450,7 @@
         <v>1928</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>17</v>
@@ -2465,10 +2465,10 @@
         <v>3913</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>14</v>
@@ -2555,7 +2555,7 @@
         <v>14</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>16</v>
@@ -2570,7 +2570,7 @@
         <v>14</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>16</v>
@@ -2607,7 +2607,7 @@
         <v>18</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="M11" s="7">
         <v>0</v>
@@ -2622,7 +2622,7 @@
         <v>18</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2703,13 +2703,13 @@
         <v>30761</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>100</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>102</v>
       </c>
       <c r="M13" s="7">
         <v>32</v>
@@ -2718,13 +2718,13 @@
         <v>34874</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>103</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2754,13 +2754,13 @@
         <v>6372</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>106</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>108</v>
       </c>
       <c r="M14" s="7">
         <v>6</v>
@@ -2769,13 +2769,13 @@
         <v>6372</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>109</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2831,7 +2831,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2843,10 +2843,10 @@
         <v>3085</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>14</v>
@@ -2858,13 +2858,13 @@
         <v>33757</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>114</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>116</v>
       </c>
       <c r="M16" s="7">
         <v>34</v>
@@ -2873,13 +2873,13 @@
         <v>36842</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>117</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2894,13 +2894,13 @@
         <v>1194</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>17</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="H17" s="7">
         <v>9</v>
@@ -2909,13 +2909,13 @@
         <v>9975</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>122</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>124</v>
       </c>
       <c r="M17" s="7">
         <v>10</v>
@@ -2924,13 +2924,13 @@
         <v>11169</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>125</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2986,7 +2986,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -3001,7 +3001,7 @@
         <v>14</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="G19" s="7" t="s">
         <v>16</v>
@@ -3013,13 +3013,13 @@
         <v>28808</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>129</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>44</v>
       </c>
       <c r="M19" s="7">
         <v>28</v>
@@ -3028,13 +3028,13 @@
         <v>31459</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>132</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3055,7 +3055,7 @@
         <v>18</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H20" s="7">
         <v>3</v>
@@ -3064,10 +3064,10 @@
         <v>3547</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>135</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>50</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>136</v>
@@ -3296,7 +3296,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P14A14-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P14A14-Edad-trans_orig.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BB474F0F-D648-4784-87A9-1B14930683FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E7105D94-54E4-4591-949E-FE969BDCBFD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{3114B7C5-7985-4772-8DE3-ACC04CB75C76}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{B8EACB52-D65F-448A-A332-1183B98A3BF1}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
-    <sheet name="2015" sheetId="3" r:id="rId2"/>
+    <sheet name="2016" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474" uniqueCount="160">
   <si>
     <t>Población que recibe medicación o terapia por fibromialgia en 2012 (Tasa respuesta: 1,41%)</t>
   </si>
@@ -105,13 +105,13 @@
     <t>86,83%</t>
   </si>
   <si>
-    <t>59,94%</t>
+    <t>59,28%</t>
   </si>
   <si>
     <t>13,17%</t>
   </si>
   <si>
-    <t>40,06%</t>
+    <t>40,72%</t>
   </si>
   <si>
     <t>45/54</t>
@@ -123,16 +123,19 @@
     <t>86,48%</t>
   </si>
   <si>
-    <t>67,94%</t>
+    <t>65,84%</t>
+  </si>
+  <si>
+    <t>95,98%</t>
   </si>
   <si>
     <t>83,6%</t>
   </si>
   <si>
-    <t>65,77%</t>
-  </si>
-  <si>
-    <t>95,84%</t>
+    <t>65,96%</t>
+  </si>
+  <si>
+    <t>96,0%</t>
   </si>
   <si>
     <t>51,86%</t>
@@ -141,16 +144,19 @@
     <t>13,52%</t>
   </si>
   <si>
-    <t>32,06%</t>
+    <t>4,02%</t>
+  </si>
+  <si>
+    <t>34,16%</t>
   </si>
   <si>
     <t>16,4%</t>
   </si>
   <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>34,23%</t>
+    <t>4,0%</t>
+  </si>
+  <si>
+    <t>34,04%</t>
   </si>
   <si>
     <t>55/64</t>
@@ -162,19 +168,19 @@
     <t>86,4%</t>
   </si>
   <si>
-    <t>68,08%</t>
-  </si>
-  <si>
-    <t>96,55%</t>
+    <t>70,74%</t>
+  </si>
+  <si>
+    <t>96,54%</t>
   </si>
   <si>
     <t>84,06%</t>
   </si>
   <si>
-    <t>69,77%</t>
-  </si>
-  <si>
-    <t>94,2%</t>
+    <t>67,4%</t>
+  </si>
+  <si>
+    <t>93,82%</t>
   </si>
   <si>
     <t>46,92%</t>
@@ -183,19 +189,19 @@
     <t>13,6%</t>
   </si>
   <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>31,92%</t>
+    <t>3,46%</t>
+  </si>
+  <si>
+    <t>29,26%</t>
   </si>
   <si>
     <t>15,94%</t>
   </si>
   <si>
-    <t>5,8%</t>
-  </si>
-  <si>
-    <t>30,23%</t>
+    <t>6,18%</t>
+  </si>
+  <si>
+    <t>32,6%</t>
   </si>
   <si>
     <t>65 y más</t>
@@ -207,16 +213,16 @@
     <t>89,14%</t>
   </si>
   <si>
-    <t>67,04%</t>
+    <t>67,0%</t>
   </si>
   <si>
     <t>85,86%</t>
   </si>
   <si>
-    <t>66,31%</t>
-  </si>
-  <si>
-    <t>95,74%</t>
+    <t>64,09%</t>
+  </si>
+  <si>
+    <t>95,65%</t>
   </si>
   <si>
     <t>33,25%</t>
@@ -225,22 +231,22 @@
     <t>10,86%</t>
   </si>
   <si>
-    <t>32,96%</t>
+    <t>33,0%</t>
   </si>
   <si>
     <t>14,14%</t>
   </si>
   <si>
-    <t>4,26%</t>
-  </si>
-  <si>
-    <t>33,69%</t>
+    <t>4,35%</t>
+  </si>
+  <si>
+    <t>35,91%</t>
   </si>
   <si>
     <t>57,7%</t>
   </si>
   <si>
-    <t>27,13%</t>
+    <t>14,4%</t>
   </si>
   <si>
     <t>86,53%</t>
@@ -249,19 +255,19 @@
     <t>87,73%</t>
   </si>
   <si>
-    <t>79,85%</t>
-  </si>
-  <si>
-    <t>93,56%</t>
+    <t>79,56%</t>
+  </si>
+  <si>
+    <t>93,54%</t>
   </si>
   <si>
     <t>85,5%</t>
   </si>
   <si>
-    <t>77,44%</t>
-  </si>
-  <si>
-    <t>91,75%</t>
+    <t>77,02%</t>
+  </si>
+  <si>
+    <t>91,05%</t>
   </si>
   <si>
     <t>42,3%</t>
@@ -270,31 +276,31 @@
     <t>13,47%</t>
   </si>
   <si>
-    <t>72,87%</t>
+    <t>85,6%</t>
   </si>
   <si>
     <t>12,27%</t>
   </si>
   <si>
-    <t>6,44%</t>
-  </si>
-  <si>
-    <t>20,15%</t>
+    <t>6,46%</t>
+  </si>
+  <si>
+    <t>20,44%</t>
   </si>
   <si>
     <t>14,5%</t>
   </si>
   <si>
-    <t>8,25%</t>
-  </si>
-  <si>
-    <t>22,56%</t>
+    <t>8,95%</t>
+  </si>
+  <si>
+    <t>22,98%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
   </si>
   <si>
-    <t>Población que recibe medicación o terapia por fibromialgia en 2015 (Tasa respuesta: 1,95%)</t>
+    <t>Población que recibe medicación o terapia por fibromialgia en 2016 (Tasa respuesta: 1,95%)</t>
   </si>
   <si>
     <t>22,85%</t>
@@ -312,7 +318,7 @@
     <t>34,12%</t>
   </si>
   <si>
-    <t>84,58%</t>
+    <t>83,25%</t>
   </si>
   <si>
     <t>66,04%</t>
@@ -324,7 +330,7 @@
     <t>65,88%</t>
   </si>
   <si>
-    <t>15,42%</t>
+    <t>16,75%</t>
   </si>
   <si>
     <t>79,25%</t>
@@ -336,85 +342,85 @@
     <t>82,84%</t>
   </si>
   <si>
-    <t>67,92%</t>
-  </si>
-  <si>
-    <t>93,83%</t>
+    <t>67,76%</t>
+  </si>
+  <si>
+    <t>92,7%</t>
   </si>
   <si>
     <t>84,55%</t>
   </si>
   <si>
-    <t>70,73%</t>
-  </si>
-  <si>
-    <t>93,01%</t>
+    <t>71,09%</t>
+  </si>
+  <si>
+    <t>93,03%</t>
   </si>
   <si>
     <t>17,16%</t>
   </si>
   <si>
-    <t>6,17%</t>
-  </si>
-  <si>
-    <t>32,08%</t>
+    <t>7,3%</t>
+  </si>
+  <si>
+    <t>32,24%</t>
   </si>
   <si>
     <t>15,45%</t>
   </si>
   <si>
-    <t>6,99%</t>
-  </si>
-  <si>
-    <t>29,27%</t>
+    <t>6,97%</t>
+  </si>
+  <si>
+    <t>28,91%</t>
   </si>
   <si>
     <t>72,1%</t>
   </si>
   <si>
-    <t>15,4%</t>
+    <t>21,64%</t>
   </si>
   <si>
     <t>77,19%</t>
   </si>
   <si>
-    <t>62,04%</t>
-  </si>
-  <si>
-    <t>87,58%</t>
+    <t>62,28%</t>
+  </si>
+  <si>
+    <t>87,71%</t>
   </si>
   <si>
     <t>76,74%</t>
   </si>
   <si>
-    <t>62,74%</t>
-  </si>
-  <si>
-    <t>88,16%</t>
+    <t>62,92%</t>
+  </si>
+  <si>
+    <t>88,37%</t>
   </si>
   <si>
     <t>27,9%</t>
   </si>
   <si>
-    <t>84,6%</t>
+    <t>78,36%</t>
   </si>
   <si>
     <t>22,81%</t>
   </si>
   <si>
-    <t>12,42%</t>
-  </si>
-  <si>
-    <t>37,96%</t>
+    <t>12,29%</t>
+  </si>
+  <si>
+    <t>37,72%</t>
   </si>
   <si>
     <t>23,26%</t>
   </si>
   <si>
-    <t>11,84%</t>
-  </si>
-  <si>
-    <t>37,26%</t>
+    <t>11,63%</t>
+  </si>
+  <si>
+    <t>37,08%</t>
   </si>
   <si>
     <t>43,07%</t>
@@ -423,19 +429,19 @@
     <t>89,04%</t>
   </si>
   <si>
-    <t>72,13%</t>
-  </si>
-  <si>
-    <t>96,66%</t>
+    <t>71,03%</t>
+  </si>
+  <si>
+    <t>96,7%</t>
   </si>
   <si>
     <t>89,87%</t>
   </si>
   <si>
-    <t>75,07%</t>
-  </si>
-  <si>
-    <t>96,99%</t>
+    <t>72,26%</t>
+  </si>
+  <si>
+    <t>96,86%</t>
   </si>
   <si>
     <t>56,93%</t>
@@ -444,73 +450,73 @@
     <t>10,96%</t>
   </si>
   <si>
-    <t>3,34%</t>
-  </si>
-  <si>
-    <t>27,87%</t>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>28,97%</t>
   </si>
   <si>
     <t>10,13%</t>
   </si>
   <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>24,93%</t>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>27,74%</t>
   </si>
   <si>
     <t>77,37%</t>
   </si>
   <si>
-    <t>52,87%</t>
-  </si>
-  <si>
-    <t>93,23%</t>
+    <t>45,79%</t>
+  </si>
+  <si>
+    <t>93,24%</t>
   </si>
   <si>
     <t>82,55%</t>
   </si>
   <si>
-    <t>74,99%</t>
-  </si>
-  <si>
-    <t>89,05%</t>
+    <t>75,18%</t>
+  </si>
+  <si>
+    <t>88,56%</t>
   </si>
   <si>
     <t>82,03%</t>
   </si>
   <si>
-    <t>74,45%</t>
-  </si>
-  <si>
-    <t>88,33%</t>
+    <t>74,58%</t>
+  </si>
+  <si>
+    <t>87,19%</t>
   </si>
   <si>
     <t>22,63%</t>
   </si>
   <si>
-    <t>6,77%</t>
-  </si>
-  <si>
-    <t>47,13%</t>
+    <t>6,76%</t>
+  </si>
+  <si>
+    <t>54,21%</t>
   </si>
   <si>
     <t>17,45%</t>
   </si>
   <si>
-    <t>10,95%</t>
-  </si>
-  <si>
-    <t>25,01%</t>
+    <t>11,44%</t>
+  </si>
+  <si>
+    <t>24,82%</t>
   </si>
   <si>
     <t>17,97%</t>
   </si>
   <si>
-    <t>11,67%</t>
-  </si>
-  <si>
-    <t>25,55%</t>
+    <t>12,81%</t>
+  </si>
+  <si>
+    <t>25,42%</t>
   </si>
 </sst>
 </file>
@@ -922,7 +928,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B461B2D6-9624-4444-962A-AAA661F5CCC7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{381891F6-8D9E-461A-A63F-EF5F0BB4322B}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1502,7 +1508,7 @@
         <v>28</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="M13" s="7">
         <v>20</v>
@@ -1511,13 +1517,13 @@
         <v>22328</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1532,7 +1538,7 @@
         <v>1041</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>17</v>
@@ -1547,13 +1553,13 @@
         <v>3340</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="M14" s="7">
         <v>4</v>
@@ -1562,13 +1568,13 @@
         <v>4380</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1624,7 +1630,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -1636,7 +1642,7 @@
         <v>1145</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>17</v>
@@ -1651,13 +1657,13 @@
         <v>24776</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="M16" s="7">
         <v>24</v>
@@ -1666,13 +1672,13 @@
         <v>25920</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1687,7 +1693,7 @@
         <v>1013</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>17</v>
@@ -1702,13 +1708,13 @@
         <v>3901</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="M17" s="7">
         <v>5</v>
@@ -1717,13 +1723,13 @@
         <v>4914</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1779,7 +1785,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -1791,7 +1797,7 @@
         <v>2149</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>17</v>
@@ -1806,10 +1812,10 @@
         <v>16706</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="L19" s="7" t="s">
         <v>14</v>
@@ -1821,13 +1827,13 @@
         <v>18854</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -1842,7 +1848,7 @@
         <v>1071</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>17</v>
@@ -1857,13 +1863,13 @@
         <v>2034</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>17</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="M20" s="7">
         <v>3</v>
@@ -1872,13 +1878,13 @@
         <v>3105</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -1946,13 +1952,13 @@
         <v>4260</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="H22" s="7">
         <v>74</v>
@@ -1961,13 +1967,13 @@
         <v>80464</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="M22" s="7">
         <v>78</v>
@@ -1976,13 +1982,13 @@
         <v>84725</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -1997,13 +2003,13 @@
         <v>3124</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="H23" s="7">
         <v>11</v>
@@ -2012,13 +2018,13 @@
         <v>11250</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="M23" s="7">
         <v>14</v>
@@ -2027,13 +2033,13 @@
         <v>14373</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2089,7 +2095,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
   </sheetData>
@@ -2111,7 +2117,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CB20141-1A4D-4943-B046-6362A9CDDC45}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC89AE35-7190-4B4C-B5A9-1A29000A8E44}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2128,7 +2134,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2251,7 +2257,7 @@
         <v>14</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>16</v>
@@ -2266,7 +2272,7 @@
         <v>14</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>16</v>
@@ -2303,7 +2309,7 @@
         <v>18</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
@@ -2318,7 +2324,7 @@
         <v>18</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2384,7 +2390,7 @@
         <v>1020</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>17</v>
@@ -2399,7 +2405,7 @@
         <v>1006</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>17</v>
@@ -2414,13 +2420,13 @@
         <v>2026</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="P7" s="7" t="s">
         <v>17</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2435,7 +2441,7 @@
         <v>1985</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>17</v>
@@ -2450,7 +2456,7 @@
         <v>1928</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>17</v>
@@ -2465,10 +2471,10 @@
         <v>3913</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>14</v>
@@ -2555,7 +2561,7 @@
         <v>14</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>16</v>
@@ -2570,7 +2576,7 @@
         <v>14</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>16</v>
@@ -2607,7 +2613,7 @@
         <v>18</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="M11" s="7">
         <v>0</v>
@@ -2622,7 +2628,7 @@
         <v>18</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2703,13 +2709,13 @@
         <v>30761</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="M13" s="7">
         <v>32</v>
@@ -2718,13 +2724,13 @@
         <v>34874</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2754,13 +2760,13 @@
         <v>6372</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="M14" s="7">
         <v>6</v>
@@ -2769,13 +2775,13 @@
         <v>6372</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2831,7 +2837,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2843,10 +2849,10 @@
         <v>3085</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>14</v>
@@ -2858,13 +2864,13 @@
         <v>33757</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="M16" s="7">
         <v>34</v>
@@ -2873,13 +2879,13 @@
         <v>36842</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2894,13 +2900,13 @@
         <v>1194</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>17</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="H17" s="7">
         <v>9</v>
@@ -2909,13 +2915,13 @@
         <v>9975</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="M17" s="7">
         <v>10</v>
@@ -2924,13 +2930,13 @@
         <v>11169</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2986,7 +2992,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -3001,7 +3007,7 @@
         <v>14</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="G19" s="7" t="s">
         <v>16</v>
@@ -3013,13 +3019,13 @@
         <v>28808</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="M19" s="7">
         <v>28</v>
@@ -3028,13 +3034,13 @@
         <v>31459</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3055,7 +3061,7 @@
         <v>18</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="H20" s="7">
         <v>3</v>
@@ -3064,13 +3070,13 @@
         <v>3547</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="M20" s="7">
         <v>3</v>
@@ -3079,13 +3085,13 @@
         <v>3547</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3153,13 +3159,13 @@
         <v>10869</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="H22" s="7">
         <v>95</v>
@@ -3168,13 +3174,13 @@
         <v>103246</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="M22" s="7">
         <v>105</v>
@@ -3183,13 +3189,13 @@
         <v>114115</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3204,13 +3210,13 @@
         <v>3179</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="H23" s="7">
         <v>20</v>
@@ -3219,13 +3225,13 @@
         <v>21822</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="M23" s="7">
         <v>23</v>
@@ -3234,13 +3240,13 @@
         <v>25001</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3296,7 +3302,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
   </sheetData>
